--- a/data/income_statement/3digits/total/561_IS_TOTAL.xlsx
+++ b/data/income_statement/3digits/total/561_IS_TOTAL.xlsx
@@ -3,198 +3,25 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="934" visibility="visible" windowHeight="2385" windowWidth="4830" xWindow="600" yWindow="2550"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="600" yWindow="2550" windowWidth="4830" windowHeight="2385" tabRatio="934" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="KGEL" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName localSheetId="0" name="\u">#REF!</definedName>
+    <definedName name="\u" localSheetId="0">#REF!</definedName>
     <definedName name="\u">#REF!</definedName>
-    <definedName localSheetId="0" name="_xlnm.Print_Area">KGEL!$A$1:$M$61</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'KGEL'!$A$1:$N$61</definedName>
   </definedNames>
   <calcPr calcId="162913" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="56">
-  <si>
-    <t>561-Restaurants and mobile food service activities</t>
-  </si>
-  <si>
-    <t>INCOME STATEMENT (TRY THOUSANDS)</t>
-  </si>
-  <si>
-    <t>A-GROSS SALES</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Domestic Sales</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Exports</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other </t>
-  </si>
-  <si>
-    <t>B-DEDUCTIONS FROM SALES    (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Sales Returns (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Sales Discounts (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other Deductions (-)</t>
-  </si>
-  <si>
-    <t>C-NET SALES</t>
-  </si>
-  <si>
-    <t>D-COST OF GOODS SOLD  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Cost of Finished Goods Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Cost of Merchandise Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Cost of Services Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Other Cost of Sales (-)</t>
-  </si>
-  <si>
-    <t>GROSS PROFIT OR LOSS</t>
-  </si>
-  <si>
-    <t>E-OPERATING EXPENSES  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Research and Development Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Marketing, Selling and Distribution Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-General Administration Expenses (-)</t>
-  </si>
-  <si>
-    <t>OPERATING PROFIT OR LOSS</t>
-  </si>
-  <si>
-    <t>F-INCOME FROM OTHER OPERATIONS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Dividends from Participations</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Dividends from Affiliated Enterprises</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Interest Income</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Commissions</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    5-Provisions that are Cancelled</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    6-Income from Sale of Securities</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    7-Exchange Profits</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    8-Discount Income</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    9-Inflation Adjustment Profits</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   10-Other Income</t>
-  </si>
-  <si>
-    <t>G-EXPENSES FROM OTHER OPERATIONS (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Commissions (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Provision Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Loss from Sale of Securities (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Exchange Losses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    5-Discount Costs (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    6-Inflation Adjustment Losses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    7-Other Expenditures (-)</t>
-  </si>
-  <si>
-    <t>H-FINANCING EXPENSES  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Short-term Financing Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Long-term Financing Expenses (-)</t>
-  </si>
-  <si>
-    <t>PROFIT BEFORE EXTRAORDINARY ITEMS</t>
-  </si>
-  <si>
-    <t>I-EXTRAORDINARY INCOME AND PROFITS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Profits and Income from Previous Period</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Other Extraordinary Profits and Income</t>
-  </si>
-  <si>
-    <t>J-EXTRA ORDINARY EXPENSES AND LOSSES (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Losses from non-Operating Parts (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Losses from Previous Periods (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other Extraordinary Expenses (-)</t>
-  </si>
-  <si>
-    <t>PROFIT OR LOSS BEFORE TAXES</t>
-  </si>
-  <si>
-    <t>K-PROVISIONS FOR INC.TAX &amp; OTH.LIAB.TO GOV.</t>
-  </si>
-  <si>
-    <t>NET PROFIT OR LOSS FOR THE FINANCIAL YEAR</t>
-  </si>
-  <si>
-    <t>Number of Companies</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="2">
-    <numFmt formatCode="#,##0.0_);\(#,##0.0\)" numFmtId="164"/>
-    <numFmt formatCode="0_)" numFmtId="165"/>
+    <numFmt numFmtId="164" formatCode="#,##0.0_);\(#,##0.0\)"/>
+    <numFmt numFmtId="165" formatCode="0_)"/>
   </numFmts>
   <fonts count="13">
     <font>
@@ -459,97 +286,165 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="49">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="centerContinuous"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="2" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="1" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="3" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="3" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="3" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="4" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="1" fillId="0" fontId="5" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="5" fillId="0" fontId="7" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="5" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="4" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="5" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="5" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyProtection="1" borderId="5" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="5" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="5" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="6" fillId="0" fontId="7" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="6" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="6" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="6" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="6" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="7" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="7" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="10" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="12" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="13" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="14" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="3" numFmtId="37" pivotButton="0" quotePrefix="1" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="10" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="12" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="13" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="14" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="3" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="1" xfId="0">
       <alignment horizontal="left"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" borderId="8" fillId="0" fontId="4" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="10" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="2" fontId="4" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="12" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="12" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="4" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="12" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="12" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="4" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="10" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="008080FF"/>
+      <rgbColor rgb="00802060"/>
+      <rgbColor rgb="00FFFFC0"/>
+      <rgbColor rgb="00A0E0E0"/>
+      <rgbColor rgb="00600080"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000080C0"/>
+      <rgbColor rgb="00C0C0FF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CFFF"/>
+      <rgbColor rgb="0069FFFF"/>
+      <rgbColor rgb="00E0FFE0"/>
+      <rgbColor rgb="00FFFF80"/>
+      <rgbColor rgb="00A6CAF0"/>
+      <rgbColor rgb="00DD9CB3"/>
+      <rgbColor rgb="00B38FEE"/>
+      <rgbColor rgb="00E3E3E3"/>
+      <rgbColor rgb="002A6FF9"/>
+      <rgbColor rgb="003FB8CD"/>
+      <rgbColor rgb="00488436"/>
+      <rgbColor rgb="00958C41"/>
+      <rgbColor rgb="008E5E42"/>
+      <rgbColor rgb="00A0627A"/>
+      <rgbColor rgb="00624FAC"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="001D2FBE"/>
+      <rgbColor rgb="00286676"/>
+      <rgbColor rgb="00004500"/>
+      <rgbColor rgb="00453E01"/>
+      <rgbColor rgb="006A2813"/>
+      <rgbColor rgb="0085396A"/>
+      <rgbColor rgb="004A3285"/>
+      <rgbColor rgb="00424242"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -844,23 +739,22 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M64"/>
+  <dimension ref="A1:N64"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="0" defaultRowHeight="13.5" outlineLevelCol="0" zeroHeight="1"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="0" defaultRowHeight="13.5" zeroHeight="1"/>
   <cols>
-    <col customWidth="1" max="1" min="1" style="15" width="1.625"/>
-    <col customWidth="1" max="2" min="2" style="15" width="35"/>
-    <col customWidth="1" max="12" min="3" style="15" width="10.25"/>
-    <col customWidth="1" max="13" min="13" style="15" width="10.375"/>
-    <col customWidth="1" max="14" min="14" style="15" width="9"/>
-    <col customWidth="1" hidden="1" max="16384" min="15" style="15"/>
+    <col width="1.625" customWidth="1" style="15" min="1" max="1"/>
+    <col width="35" customWidth="1" style="15" min="2" max="2"/>
+    <col width="13.125" customWidth="1" style="15" min="3" max="14"/>
+    <col width="9" customWidth="1" style="15" min="15" max="15"/>
+    <col hidden="1" style="15" min="16" max="16384"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1">
       <c r="A1" s="12" t="n"/>
       <c r="B1" s="11" t="n"/>
       <c r="C1" s="2" t="n"/>
@@ -873,11 +767,14 @@
       <c r="J1" s="2" t="n"/>
       <c r="K1" s="2" t="n"/>
       <c r="L1" s="2" t="n"/>
-      <c r="M1" s="11" t="n"/>
-    </row>
-    <row r="2" spans="1:13">
-      <c r="A2" s="31" t="s">
-        <v>0</v>
+      <c r="M1" s="2" t="n"/>
+      <c r="N1" s="11" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="31" t="inlineStr">
+        <is>
+          <t>561-Restaurants and mobile food service activities</t>
+        </is>
       </c>
       <c r="C2" s="12" t="n"/>
       <c r="D2" s="12" t="n"/>
@@ -890,10 +787,13 @@
       <c r="K2" s="12" t="n"/>
       <c r="L2" s="12" t="n"/>
       <c r="M2" s="12" t="n"/>
-    </row>
-    <row r="3" spans="1:13">
-      <c r="A3" s="4" t="s">
-        <v>1</v>
+      <c r="N2" s="12" t="n"/>
+    </row>
+    <row r="3">
+      <c r="A3" s="4" t="inlineStr">
+        <is>
+          <t>INCOME STATEMENT (TRY THOUSANDS)</t>
+        </is>
       </c>
       <c r="C3" s="12" t="n"/>
       <c r="D3" s="12" t="n"/>
@@ -906,8 +806,9 @@
       <c r="K3" s="12" t="n"/>
       <c r="L3" s="12" t="n"/>
       <c r="M3" s="12" t="n"/>
-    </row>
-    <row customHeight="1" ht="14.1" r="4" s="44" spans="1:13">
+      <c r="N3" s="12" t="n"/>
+    </row>
+    <row r="4" ht="14.1" customHeight="1" s="44">
       <c r="A4" s="8" t="n"/>
       <c r="B4" s="13" t="n"/>
       <c r="C4" s="33" t="n">
@@ -940,134 +841,154 @@
       <c r="L4" s="32" t="n">
         <v>2018</v>
       </c>
-      <c r="M4" s="33" t="n">
+      <c r="M4" s="32" t="n">
         <v>2019</v>
       </c>
-    </row>
-    <row r="5" spans="1:13">
+      <c r="N4" s="33" t="n">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="5">
       <c r="A5" s="14" t="n"/>
-      <c r="B5" s="38" t="s">
-        <v>2</v>
+      <c r="B5" s="38" t="inlineStr">
+        <is>
+          <t>A-GROSS SALES</t>
+        </is>
       </c>
       <c r="C5" s="46" t="n">
-        <v>6339823.86603</v>
+        <v>6340208.350960001</v>
       </c>
       <c r="D5" s="47" t="n">
-        <v>7763844.087090001</v>
+        <v>7764071.238950001</v>
       </c>
       <c r="E5" s="47" t="n">
-        <v>9745300.459659999</v>
+        <v>9746247.77203</v>
       </c>
       <c r="F5" s="47" t="n">
-        <v>11890659.72456</v>
+        <v>11897999.30995</v>
       </c>
       <c r="G5" s="47" t="n">
-        <v>13983999.98497</v>
+        <v>14025519.22706</v>
       </c>
       <c r="H5" s="47" t="n">
-        <v>17308364.63824</v>
+        <v>17379357.36812</v>
       </c>
       <c r="I5" s="47" t="n">
-        <v>19111768.05702</v>
+        <v>20677591.07088</v>
       </c>
       <c r="J5" s="47" t="n">
-        <v>23824472.74768</v>
+        <v>23878385.74164</v>
       </c>
       <c r="K5" s="47" t="n">
         <v>30447062.95241</v>
       </c>
       <c r="L5" s="47" t="n">
-        <v>36394327.66103</v>
+        <v>36557360.50336</v>
       </c>
       <c r="M5" s="47" t="n">
-        <v>45938005.32477</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
+        <v>46964585.6562</v>
+      </c>
+      <c r="N5" s="47" t="n">
+        <v>40814176.654</v>
+      </c>
+    </row>
+    <row r="6">
       <c r="A6" s="9" t="n"/>
-      <c r="B6" s="3" t="s">
-        <v>3</v>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Domestic Sales</t>
+        </is>
       </c>
       <c r="C6" s="48" t="n">
-        <v>6189955.790680001</v>
+        <v>6190335.80951</v>
       </c>
       <c r="D6" s="48" t="n">
-        <v>7583884.03579</v>
+        <v>7584111.18765</v>
       </c>
       <c r="E6" s="48" t="n">
-        <v>9517996.31026</v>
+        <v>9518943.622630002</v>
       </c>
       <c r="F6" s="48" t="n">
-        <v>11535271.85015</v>
+        <v>11542443.92799</v>
       </c>
       <c r="G6" s="48" t="n">
-        <v>13573469.03222</v>
+        <v>13614906.09448</v>
       </c>
       <c r="H6" s="48" t="n">
-        <v>16783794.24927</v>
+        <v>16846730.78684</v>
       </c>
       <c r="I6" s="48" t="n">
-        <v>18446353.60897</v>
+        <v>19972012.72673</v>
       </c>
       <c r="J6" s="48" t="n">
-        <v>22940453.13242</v>
+        <v>22993622.15822</v>
       </c>
       <c r="K6" s="48" t="n">
         <v>29288464.31784</v>
       </c>
       <c r="L6" s="48" t="n">
-        <v>35277379.77722999</v>
+        <v>35430714.84042</v>
       </c>
       <c r="M6" s="48" t="n">
-        <v>44370968.15251999</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
+        <v>45375726.34681</v>
+      </c>
+      <c r="N6" s="48" t="n">
+        <v>39055147.878</v>
+      </c>
+    </row>
+    <row r="7">
       <c r="A7" s="9" t="n"/>
-      <c r="B7" s="3" t="s">
-        <v>4</v>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Exports</t>
+        </is>
       </c>
       <c r="C7" s="48" t="n">
-        <v>34036.39686000001</v>
+        <v>34036.39686</v>
       </c>
       <c r="D7" s="48" t="n">
         <v>46270.13626</v>
       </c>
       <c r="E7" s="48" t="n">
-        <v>40711.85376000001</v>
+        <v>40711.85376</v>
       </c>
       <c r="F7" s="48" t="n">
         <v>68269.47473999999</v>
       </c>
       <c r="G7" s="48" t="n">
-        <v>82688.75885</v>
+        <v>82691.80580000002</v>
       </c>
       <c r="H7" s="48" t="n">
-        <v>118979.06478</v>
+        <v>125611.9832</v>
       </c>
       <c r="I7" s="48" t="n">
-        <v>159223.73684</v>
+        <v>178702.95851</v>
       </c>
       <c r="J7" s="48" t="n">
         <v>173186.49235</v>
       </c>
       <c r="K7" s="48" t="n">
-        <v>300133.5207999999</v>
+        <v>300133.5208</v>
       </c>
       <c r="L7" s="48" t="n">
-        <v>252308.9656</v>
+        <v>257911.73504</v>
       </c>
       <c r="M7" s="48" t="n">
-        <v>310667.69995</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13">
+        <v>312451.2663</v>
+      </c>
+      <c r="N7" s="48" t="n">
+        <v>528468.588</v>
+      </c>
+    </row>
+    <row r="8">
       <c r="A8" s="9" t="n"/>
-      <c r="B8" s="3" t="s">
-        <v>5</v>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other </t>
+        </is>
       </c>
       <c r="C8" s="48" t="n">
-        <v>115831.67849</v>
+        <v>115836.14459</v>
       </c>
       <c r="D8" s="48" t="n">
         <v>133689.91504</v>
@@ -1076,34 +997,39 @@
         <v>186592.29564</v>
       </c>
       <c r="F8" s="48" t="n">
-        <v>287118.39967</v>
+        <v>287285.90722</v>
       </c>
       <c r="G8" s="48" t="n">
-        <v>327842.1939</v>
+        <v>327921.3267799999</v>
       </c>
       <c r="H8" s="48" t="n">
-        <v>405591.3241900001</v>
+        <v>407014.59808</v>
       </c>
       <c r="I8" s="48" t="n">
-        <v>506190.71121</v>
+        <v>526875.38564</v>
       </c>
       <c r="J8" s="48" t="n">
-        <v>710833.1229099999</v>
+        <v>711577.09107</v>
       </c>
       <c r="K8" s="48" t="n">
         <v>858465.1137699999</v>
       </c>
       <c r="L8" s="48" t="n">
-        <v>864638.9182000001</v>
+        <v>868733.9278999999</v>
       </c>
       <c r="M8" s="48" t="n">
-        <v>1256369.4723</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13">
+        <v>1276408.04309</v>
+      </c>
+      <c r="N8" s="48" t="n">
+        <v>1230560.188</v>
+      </c>
+    </row>
+    <row r="9">
       <c r="A9" s="14" t="n"/>
-      <c r="B9" s="38" t="s">
-        <v>6</v>
+      <c r="B9" s="38" t="inlineStr">
+        <is>
+          <t>B-DEDUCTIONS FROM SALES    (-)</t>
+        </is>
       </c>
       <c r="C9" s="46" t="n">
         <v>21903.39689</v>
@@ -1118,31 +1044,36 @@
         <v>45219.13739</v>
       </c>
       <c r="G9" s="47" t="n">
-        <v>57926.7496</v>
+        <v>57972.21876999999</v>
       </c>
       <c r="H9" s="47" t="n">
-        <v>68221.9259</v>
+        <v>69513.25314</v>
       </c>
       <c r="I9" s="47" t="n">
-        <v>66711.15019</v>
+        <v>88031.93132999999</v>
       </c>
       <c r="J9" s="47" t="n">
-        <v>121550.40916</v>
+        <v>121705.79225</v>
       </c>
       <c r="K9" s="47" t="n">
         <v>141837.27322</v>
       </c>
       <c r="L9" s="47" t="n">
-        <v>151034.45088</v>
+        <v>151112.67005</v>
       </c>
       <c r="M9" s="47" t="n">
-        <v>269274.32613</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13">
+        <v>270490.03393</v>
+      </c>
+      <c r="N9" s="47" t="n">
+        <v>532322.637</v>
+      </c>
+    </row>
+    <row r="10">
       <c r="A10" s="9" t="n"/>
-      <c r="B10" s="3" t="s">
-        <v>7</v>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Sales Returns (-)</t>
+        </is>
       </c>
       <c r="C10" s="48" t="n">
         <v>13423.07974</v>
@@ -1157,31 +1088,36 @@
         <v>28578.78246</v>
       </c>
       <c r="G10" s="48" t="n">
-        <v>37994.44338</v>
+        <v>38004.59862999999</v>
       </c>
       <c r="H10" s="48" t="n">
-        <v>43530.89548000001</v>
+        <v>44797.68216</v>
       </c>
       <c r="I10" s="48" t="n">
-        <v>44838.10287</v>
+        <v>51468.00484</v>
       </c>
       <c r="J10" s="48" t="n">
-        <v>74902.23809</v>
+        <v>74959.55506999999</v>
       </c>
       <c r="K10" s="48" t="n">
-        <v>90228.13951000001</v>
+        <v>90228.13950999999</v>
       </c>
       <c r="L10" s="48" t="n">
-        <v>70947.20656999999</v>
+        <v>70991.79505</v>
       </c>
       <c r="M10" s="48" t="n">
-        <v>165772.50383</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13">
+        <v>166349.36736</v>
+      </c>
+      <c r="N10" s="48" t="n">
+        <v>367836.54</v>
+      </c>
+    </row>
+    <row r="11">
       <c r="A11" s="9" t="n"/>
-      <c r="B11" s="3" t="s">
-        <v>8</v>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Sales Discounts (-)</t>
+        </is>
       </c>
       <c r="C11" s="48" t="n">
         <v>5978.05352</v>
@@ -1196,31 +1132,36 @@
         <v>12960.49037</v>
       </c>
       <c r="G11" s="48" t="n">
-        <v>13223.02069</v>
+        <v>13258.33461</v>
       </c>
       <c r="H11" s="48" t="n">
-        <v>19830.99607</v>
+        <v>19855.53663</v>
       </c>
       <c r="I11" s="48" t="n">
-        <v>13413.05719</v>
+        <v>28059.52823</v>
       </c>
       <c r="J11" s="48" t="n">
-        <v>30280.65347</v>
+        <v>30378.64986</v>
       </c>
       <c r="K11" s="48" t="n">
         <v>41978.80453</v>
       </c>
       <c r="L11" s="48" t="n">
-        <v>66926.01356000001</v>
+        <v>66959.40869</v>
       </c>
       <c r="M11" s="48" t="n">
-        <v>89377.94374</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13">
+        <v>89999.96722000001</v>
+      </c>
+      <c r="N11" s="48" t="n">
+        <v>154986.877</v>
+      </c>
+    </row>
+    <row r="12">
       <c r="A12" s="9" t="n"/>
-      <c r="B12" s="3" t="s">
-        <v>9</v>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other Deductions (-)</t>
+        </is>
       </c>
       <c r="C12" s="48" t="n">
         <v>2502.26363</v>
@@ -1238,223 +1179,253 @@
         <v>6709.285529999999</v>
       </c>
       <c r="H12" s="48" t="n">
-        <v>4860.03435</v>
+        <v>4860.034350000001</v>
       </c>
       <c r="I12" s="48" t="n">
-        <v>8459.99013</v>
+        <v>8504.39826</v>
       </c>
       <c r="J12" s="48" t="n">
-        <v>16367.5176</v>
+        <v>16367.58732</v>
       </c>
       <c r="K12" s="48" t="n">
         <v>9630.329179999999</v>
       </c>
       <c r="L12" s="48" t="n">
-        <v>13161.23075</v>
+        <v>13161.46631</v>
       </c>
       <c r="M12" s="48" t="n">
-        <v>14123.87856</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13">
+        <v>14140.69935</v>
+      </c>
+      <c r="N12" s="48" t="n">
+        <v>9499.219999999999</v>
+      </c>
+    </row>
+    <row r="13">
       <c r="A13" s="14" t="n"/>
-      <c r="B13" s="38" t="s">
-        <v>10</v>
+      <c r="B13" s="38" t="inlineStr">
+        <is>
+          <t>C-NET SALES</t>
+        </is>
       </c>
       <c r="C13" s="46" t="n">
-        <v>6317920.469140001</v>
+        <v>6318304.95407</v>
       </c>
       <c r="D13" s="47" t="n">
-        <v>7737289.4386</v>
+        <v>7737516.590459999</v>
       </c>
       <c r="E13" s="47" t="n">
-        <v>9706710.53293</v>
+        <v>9707657.8453</v>
       </c>
       <c r="F13" s="47" t="n">
-        <v>11845440.58717</v>
+        <v>11852780.17256</v>
       </c>
       <c r="G13" s="47" t="n">
-        <v>13926073.23537</v>
+        <v>13967547.00829</v>
       </c>
       <c r="H13" s="47" t="n">
-        <v>17240142.71234</v>
+        <v>17309844.11498</v>
       </c>
       <c r="I13" s="47" t="n">
-        <v>19045056.90683</v>
+        <v>20589559.13955</v>
       </c>
       <c r="J13" s="47" t="n">
-        <v>23702922.33852</v>
+        <v>23756679.94939</v>
       </c>
       <c r="K13" s="47" t="n">
         <v>30305225.67919</v>
       </c>
       <c r="L13" s="47" t="n">
-        <v>36243293.21015</v>
+        <v>36406247.83331</v>
       </c>
       <c r="M13" s="47" t="n">
-        <v>45668730.99864</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13">
+        <v>46694095.62227</v>
+      </c>
+      <c r="N13" s="47" t="n">
+        <v>40281854.017</v>
+      </c>
+    </row>
+    <row r="14">
       <c r="A14" s="14" t="n"/>
-      <c r="B14" s="38" t="s">
-        <v>11</v>
+      <c r="B14" s="38" t="inlineStr">
+        <is>
+          <t>D-COST OF GOODS SOLD  (-)</t>
+        </is>
       </c>
       <c r="C14" s="46" t="n">
-        <v>4906675.08361</v>
+        <v>4906912.48683</v>
       </c>
       <c r="D14" s="47" t="n">
-        <v>6012755.589199999</v>
+        <v>6012980.004639999</v>
       </c>
       <c r="E14" s="47" t="n">
-        <v>7561114.317840002</v>
+        <v>7562026.443629999</v>
       </c>
       <c r="F14" s="47" t="n">
-        <v>9221151.041009998</v>
+        <v>9226609.96064</v>
       </c>
       <c r="G14" s="47" t="n">
-        <v>10948218.05328</v>
+        <v>10970443.70033</v>
       </c>
       <c r="H14" s="47" t="n">
-        <v>13670121.48555</v>
+        <v>13719840.99786</v>
       </c>
       <c r="I14" s="47" t="n">
-        <v>15183899.91437</v>
+        <v>16353594.22123</v>
       </c>
       <c r="J14" s="47" t="n">
-        <v>19012856.98929</v>
+        <v>19069425.02024</v>
       </c>
       <c r="K14" s="47" t="n">
         <v>24038593.09512</v>
       </c>
       <c r="L14" s="47" t="n">
-        <v>28815551.84686</v>
+        <v>28946980.73359</v>
       </c>
       <c r="M14" s="47" t="n">
-        <v>36353512.53271</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13">
+        <v>37200289.12232</v>
+      </c>
+      <c r="N14" s="47" t="n">
+        <v>32900944.46</v>
+      </c>
+    </row>
+    <row r="15">
       <c r="A15" s="9" t="n"/>
-      <c r="B15" s="3" t="s">
-        <v>12</v>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Cost of Finished Goods Sold (-)</t>
+        </is>
       </c>
       <c r="C15" s="48" t="n">
-        <v>1238265.59772</v>
+        <v>1238276.89882</v>
       </c>
       <c r="D15" s="48" t="n">
-        <v>1512472.66326</v>
+        <v>1512602.46302</v>
       </c>
       <c r="E15" s="48" t="n">
-        <v>1883276.59898</v>
+        <v>1883383.42284</v>
       </c>
       <c r="F15" s="48" t="n">
-        <v>2228709.02535</v>
+        <v>2229046.0011</v>
       </c>
       <c r="G15" s="48" t="n">
-        <v>2663892.78797</v>
+        <v>2674770.08143</v>
       </c>
       <c r="H15" s="48" t="n">
-        <v>3694088.190359999</v>
+        <v>3700795.92063</v>
       </c>
       <c r="I15" s="48" t="n">
-        <v>3799443.5652</v>
+        <v>4533053.44018</v>
       </c>
       <c r="J15" s="48" t="n">
-        <v>5112739.648129999</v>
+        <v>5124171.74459</v>
       </c>
       <c r="K15" s="48" t="n">
         <v>6308505.862290001</v>
       </c>
       <c r="L15" s="48" t="n">
-        <v>7675973.989659999</v>
+        <v>7702922.34189</v>
       </c>
       <c r="M15" s="48" t="n">
-        <v>9483970.45267</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13">
+        <v>9692795.66148</v>
+      </c>
+      <c r="N15" s="48" t="n">
+        <v>8355459.526</v>
+      </c>
+    </row>
+    <row r="16">
       <c r="A16" s="9" t="n"/>
-      <c r="B16" s="3" t="s">
-        <v>13</v>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Cost of Merchandise Sold (-)</t>
+        </is>
       </c>
       <c r="C16" s="48" t="n">
-        <v>1023339.36226</v>
+        <v>1023386.00037</v>
       </c>
       <c r="D16" s="48" t="n">
         <v>1221179.23149</v>
       </c>
       <c r="E16" s="48" t="n">
-        <v>1448686.7484</v>
+        <v>1449268.2173</v>
       </c>
       <c r="F16" s="48" t="n">
-        <v>1780077.191</v>
+        <v>1781090.61222</v>
       </c>
       <c r="G16" s="48" t="n">
-        <v>1941922.21619</v>
+        <v>1946819.97566</v>
       </c>
       <c r="H16" s="48" t="n">
-        <v>2246291.14785</v>
+        <v>2267211.97229</v>
       </c>
       <c r="I16" s="48" t="n">
-        <v>2608396.68176</v>
+        <v>2781163.90303</v>
       </c>
       <c r="J16" s="48" t="n">
-        <v>3271263.76342</v>
+        <v>3274721.31582</v>
       </c>
       <c r="K16" s="48" t="n">
         <v>5064832.31577</v>
       </c>
       <c r="L16" s="48" t="n">
-        <v>4960857.90953</v>
+        <v>5002525.56814</v>
       </c>
       <c r="M16" s="48" t="n">
-        <v>7030293.962709999</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+        <v>7243488.71035</v>
+      </c>
+      <c r="N16" s="48" t="n">
+        <v>8346732.411</v>
+      </c>
+    </row>
+    <row r="17">
       <c r="A17" s="9" t="n"/>
-      <c r="B17" s="3" t="s">
-        <v>14</v>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Cost of Services Sold (-)</t>
+        </is>
       </c>
       <c r="C17" s="48" t="n">
-        <v>2636892.85954</v>
+        <v>2637072.32355</v>
       </c>
       <c r="D17" s="48" t="n">
-        <v>3269860.22197</v>
+        <v>3269954.83765</v>
       </c>
       <c r="E17" s="48" t="n">
-        <v>4221349.40587</v>
+        <v>4221573.2389</v>
       </c>
       <c r="F17" s="48" t="n">
-        <v>5196536.753640001</v>
+        <v>5200645.276299999</v>
       </c>
       <c r="G17" s="48" t="n">
-        <v>6304175.17206</v>
+        <v>6310625.76618</v>
       </c>
       <c r="H17" s="48" t="n">
-        <v>7671801.98629</v>
+        <v>7693154.685670001</v>
       </c>
       <c r="I17" s="48" t="n">
-        <v>8666603.00148</v>
+        <v>8929726.27018</v>
       </c>
       <c r="J17" s="48" t="n">
-        <v>10517945.97997</v>
+        <v>10558735.81475</v>
       </c>
       <c r="K17" s="48" t="n">
         <v>12583600.77982</v>
       </c>
       <c r="L17" s="48" t="n">
-        <v>16102371.64356</v>
+        <v>16163650.51547</v>
       </c>
       <c r="M17" s="48" t="n">
-        <v>19733651.6377</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+        <v>20155927.04244</v>
+      </c>
+      <c r="N17" s="48" t="n">
+        <v>16046133.717</v>
+      </c>
+    </row>
+    <row r="18">
       <c r="A18" s="9" t="n"/>
-      <c r="B18" s="3" t="s">
-        <v>15</v>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Other Cost of Sales (-)</t>
+        </is>
       </c>
       <c r="C18" s="48" t="n">
         <v>8177.26409</v>
@@ -1472,106 +1443,121 @@
         <v>38227.87706</v>
       </c>
       <c r="H18" s="48" t="n">
-        <v>57940.16105</v>
+        <v>58678.41927000001</v>
       </c>
       <c r="I18" s="48" t="n">
-        <v>109456.66593</v>
+        <v>109650.60784</v>
       </c>
       <c r="J18" s="48" t="n">
-        <v>110907.59777</v>
+        <v>111796.14508</v>
       </c>
       <c r="K18" s="48" t="n">
-        <v>81654.13724</v>
+        <v>81654.13724000001</v>
       </c>
       <c r="L18" s="48" t="n">
-        <v>76348.30411</v>
+        <v>77882.30809000001</v>
       </c>
       <c r="M18" s="48" t="n">
-        <v>105596.47963</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
+        <v>108077.70805</v>
+      </c>
+      <c r="N18" s="48" t="n">
+        <v>152618.806</v>
+      </c>
+    </row>
+    <row r="19">
       <c r="A19" s="14" t="n"/>
-      <c r="B19" s="38" t="s">
-        <v>16</v>
+      <c r="B19" s="38" t="inlineStr">
+        <is>
+          <t>GROSS PROFIT OR LOSS</t>
+        </is>
       </c>
       <c r="C19" s="46" t="n">
-        <v>1411245.38553</v>
+        <v>1411392.46724</v>
       </c>
       <c r="D19" s="47" t="n">
-        <v>1724533.8494</v>
+        <v>1724536.58582</v>
       </c>
       <c r="E19" s="47" t="n">
-        <v>2145596.21509</v>
+        <v>2145631.40167</v>
       </c>
       <c r="F19" s="47" t="n">
-        <v>2624289.54616</v>
+        <v>2626170.21192</v>
       </c>
       <c r="G19" s="47" t="n">
-        <v>2977855.18209</v>
+        <v>2997103.30796</v>
       </c>
       <c r="H19" s="47" t="n">
-        <v>3570021.22679</v>
+        <v>3590003.11712</v>
       </c>
       <c r="I19" s="47" t="n">
-        <v>3861156.99246</v>
+        <v>4235964.918319999</v>
       </c>
       <c r="J19" s="47" t="n">
-        <v>4690065.349230001</v>
+        <v>4687254.929149999</v>
       </c>
       <c r="K19" s="47" t="n">
         <v>6266632.58407</v>
       </c>
       <c r="L19" s="47" t="n">
-        <v>7427741.36329</v>
+        <v>7459267.099719999</v>
       </c>
       <c r="M19" s="47" t="n">
-        <v>9315218.46593</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+        <v>9493806.499950001</v>
+      </c>
+      <c r="N19" s="47" t="n">
+        <v>7380909.557</v>
+      </c>
+    </row>
+    <row r="20">
       <c r="A20" s="14" t="n"/>
-      <c r="B20" s="38" t="s">
-        <v>17</v>
+      <c r="B20" s="38" t="inlineStr">
+        <is>
+          <t>E-OPERATING EXPENSES  (-)</t>
+        </is>
       </c>
       <c r="C20" s="46" t="n">
-        <v>1375579.03849</v>
+        <v>1375799.72102</v>
       </c>
       <c r="D20" s="47" t="n">
-        <v>1634526.53407</v>
+        <v>1634538.35556</v>
       </c>
       <c r="E20" s="47" t="n">
-        <v>2012575.74871</v>
+        <v>2012588.67233</v>
       </c>
       <c r="F20" s="47" t="n">
-        <v>2550536.5953</v>
+        <v>2552195.02604</v>
       </c>
       <c r="G20" s="47" t="n">
-        <v>2994032.77322</v>
+        <v>3015236.19415</v>
       </c>
       <c r="H20" s="47" t="n">
-        <v>3723629.38357</v>
+        <v>3744238.17742</v>
       </c>
       <c r="I20" s="47" t="n">
-        <v>4105714.06786</v>
+        <v>4485437.03043</v>
       </c>
       <c r="J20" s="47" t="n">
-        <v>5223175.71052</v>
+        <v>5231003.00255</v>
       </c>
       <c r="K20" s="47" t="n">
         <v>6305055.3135</v>
       </c>
       <c r="L20" s="47" t="n">
-        <v>7430971.323799999</v>
+        <v>7486003.51532</v>
       </c>
       <c r="M20" s="47" t="n">
-        <v>8890214.70844</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+        <v>9116067.7675</v>
+      </c>
+      <c r="N20" s="47" t="n">
+        <v>8451720.016000001</v>
+      </c>
+    </row>
+    <row r="21">
       <c r="A21" s="9" t="n"/>
-      <c r="B21" s="3" t="s">
-        <v>18</v>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Research and Development Expenses (-)</t>
+        </is>
       </c>
       <c r="C21" s="48" t="n">
         <v>2261.94985</v>
@@ -1589,145 +1575,165 @@
         <v>2542.98902</v>
       </c>
       <c r="H21" s="48" t="n">
-        <v>4868.84904</v>
+        <v>4956.79505</v>
       </c>
       <c r="I21" s="48" t="n">
-        <v>2028.78387</v>
+        <v>2070.32387</v>
       </c>
       <c r="J21" s="48" t="n">
-        <v>3846.49463</v>
+        <v>3852.1962</v>
       </c>
       <c r="K21" s="48" t="n">
         <v>3997.88284</v>
       </c>
       <c r="L21" s="48" t="n">
-        <v>2920.83056</v>
+        <v>3095.46024</v>
       </c>
       <c r="M21" s="48" t="n">
-        <v>4109.08202</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13">
+        <v>4317.03435</v>
+      </c>
+      <c r="N21" s="48" t="n">
+        <v>5333.601</v>
+      </c>
+    </row>
+    <row r="22">
       <c r="A22" s="9" t="n"/>
-      <c r="B22" s="41" t="s">
-        <v>19</v>
+      <c r="B22" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Marketing, Selling and Distribution Expenses (-)</t>
+        </is>
       </c>
       <c r="C22" s="48" t="n">
-        <v>309351.49459</v>
+        <v>309363.73084</v>
       </c>
       <c r="D22" s="48" t="n">
         <v>384649.24699</v>
       </c>
       <c r="E22" s="48" t="n">
-        <v>494045.9485599999</v>
+        <v>494045.94856</v>
       </c>
       <c r="F22" s="48" t="n">
-        <v>673095.81308</v>
+        <v>673198.93615</v>
       </c>
       <c r="G22" s="48" t="n">
-        <v>776667.32605</v>
+        <v>786210.2418600001</v>
       </c>
       <c r="H22" s="48" t="n">
-        <v>1035530.40933</v>
+        <v>1037848.24841</v>
       </c>
       <c r="I22" s="48" t="n">
-        <v>1104813.0187</v>
+        <v>1232506.24744</v>
       </c>
       <c r="J22" s="48" t="n">
-        <v>1467773.08032</v>
+        <v>1468685.81499</v>
       </c>
       <c r="K22" s="48" t="n">
         <v>1896617.27602</v>
       </c>
       <c r="L22" s="48" t="n">
-        <v>2362794.75904</v>
+        <v>2372652.69089</v>
       </c>
       <c r="M22" s="48" t="n">
-        <v>2905403.79568</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+        <v>2944449.37818</v>
+      </c>
+      <c r="N22" s="48" t="n">
+        <v>2542741.219</v>
+      </c>
+    </row>
+    <row r="23">
       <c r="A23" s="9" t="n"/>
-      <c r="B23" s="41" t="s">
-        <v>20</v>
+      <c r="B23" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-General Administration Expenses (-)</t>
+        </is>
       </c>
       <c r="C23" s="48" t="n">
-        <v>1063965.59405</v>
+        <v>1064174.04033</v>
       </c>
       <c r="D23" s="48" t="n">
-        <v>1248518.38089</v>
+        <v>1248530.20238</v>
       </c>
       <c r="E23" s="48" t="n">
-        <v>1517599.18735</v>
+        <v>1517612.11097</v>
       </c>
       <c r="F23" s="48" t="n">
-        <v>1872544.82855</v>
+        <v>1874100.13622</v>
       </c>
       <c r="G23" s="48" t="n">
-        <v>2214822.45815</v>
+        <v>2226482.96327</v>
       </c>
       <c r="H23" s="48" t="n">
-        <v>2683230.1252</v>
+        <v>2701433.13396</v>
       </c>
       <c r="I23" s="48" t="n">
-        <v>2998872.26529</v>
+        <v>3250860.45912</v>
       </c>
       <c r="J23" s="48" t="n">
-        <v>3751556.13557</v>
+        <v>3758464.99136</v>
       </c>
       <c r="K23" s="48" t="n">
         <v>4404440.15464</v>
       </c>
       <c r="L23" s="48" t="n">
-        <v>5065255.7342</v>
+        <v>5110255.364189999</v>
       </c>
       <c r="M23" s="48" t="n">
-        <v>5980701.830740001</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+        <v>6167301.354970001</v>
+      </c>
+      <c r="N23" s="48" t="n">
+        <v>5903645.196</v>
+      </c>
+    </row>
+    <row r="24">
       <c r="A24" s="14" t="n"/>
-      <c r="B24" s="42" t="s">
-        <v>21</v>
+      <c r="B24" s="42" t="inlineStr">
+        <is>
+          <t>OPERATING PROFIT OR LOSS</t>
+        </is>
       </c>
       <c r="C24" s="46" t="n">
-        <v>35666.34704000001</v>
+        <v>35592.74622</v>
       </c>
       <c r="D24" s="47" t="n">
-        <v>90007.31533000001</v>
+        <v>89998.23026000001</v>
       </c>
       <c r="E24" s="47" t="n">
-        <v>133020.46638</v>
+        <v>133042.72934</v>
       </c>
       <c r="F24" s="47" t="n">
-        <v>73752.95086</v>
+        <v>73975.18587999999</v>
       </c>
       <c r="G24" s="47" t="n">
-        <v>-16177.59113000001</v>
+        <v>-18132.88619</v>
       </c>
       <c r="H24" s="47" t="n">
-        <v>-153608.15678</v>
+        <v>-154235.0603</v>
       </c>
       <c r="I24" s="47" t="n">
-        <v>-244557.0754</v>
+        <v>-249472.11211</v>
       </c>
       <c r="J24" s="47" t="n">
-        <v>-533110.36129</v>
+        <v>-543748.0734</v>
       </c>
       <c r="K24" s="47" t="n">
-        <v>-38422.72943000002</v>
+        <v>-38422.72942999998</v>
       </c>
       <c r="L24" s="47" t="n">
-        <v>-3229.96051000002</v>
+        <v>-26736.4156</v>
       </c>
       <c r="M24" s="47" t="n">
-        <v>425003.75749</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+        <v>377738.73245</v>
+      </c>
+      <c r="N24" s="47" t="n">
+        <v>-1070810.459</v>
+      </c>
+    </row>
+    <row r="25">
       <c r="A25" s="14" t="n"/>
-      <c r="B25" s="42" t="s">
-        <v>22</v>
+      <c r="B25" s="42" t="inlineStr">
+        <is>
+          <t>F-INCOME FROM OTHER OPERATIONS</t>
+        </is>
       </c>
       <c r="C25" s="46" t="n">
         <v>117945.24025</v>
@@ -1739,34 +1745,39 @@
         <v>175938.26407</v>
       </c>
       <c r="F25" s="47" t="n">
-        <v>178995.53701</v>
+        <v>178995.55299</v>
       </c>
       <c r="G25" s="47" t="n">
-        <v>324725.48174</v>
+        <v>325031.01605</v>
       </c>
       <c r="H25" s="47" t="n">
-        <v>583067.09243</v>
+        <v>583550.5469099999</v>
       </c>
       <c r="I25" s="47" t="n">
-        <v>702042.4609399999</v>
+        <v>837093.80859</v>
       </c>
       <c r="J25" s="47" t="n">
-        <v>1013383.82846</v>
+        <v>1023968.45445</v>
       </c>
       <c r="K25" s="47" t="n">
         <v>1451626.30202</v>
       </c>
       <c r="L25" s="47" t="n">
-        <v>1468016.42441</v>
+        <v>1468897.535</v>
       </c>
       <c r="M25" s="47" t="n">
-        <v>1218028.59775</v>
-      </c>
-    </row>
-    <row r="26" spans="1:13">
+        <v>1225701.53951</v>
+      </c>
+      <c r="N25" s="47" t="n">
+        <v>1419286.295</v>
+      </c>
+    </row>
+    <row r="26">
       <c r="A26" s="9" t="n"/>
-      <c r="B26" s="41" t="s">
-        <v>23</v>
+      <c r="B26" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Dividends from Participations</t>
+        </is>
       </c>
       <c r="C26" s="48" t="n">
         <v>2344.43391</v>
@@ -1790,7 +1801,7 @@
         <v>6262.93359</v>
       </c>
       <c r="J26" s="48" t="n">
-        <v>9845.600349999999</v>
+        <v>9845.600350000001</v>
       </c>
       <c r="K26" s="48" t="n">
         <v>11013.09459</v>
@@ -1801,11 +1812,16 @@
       <c r="M26" s="48" t="n">
         <v>129201.30925</v>
       </c>
-    </row>
-    <row r="27" spans="1:13">
+      <c r="N26" s="48" t="n">
+        <v>50176.146</v>
+      </c>
+    </row>
+    <row r="27">
       <c r="A27" s="9" t="n"/>
-      <c r="B27" s="41" t="s">
-        <v>24</v>
+      <c r="B27" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Dividends from Affiliated Enterprises</t>
+        </is>
       </c>
       <c r="C27" s="48" t="n">
         <v>156.61805</v>
@@ -1826,7 +1842,7 @@
         <v>30142.26304</v>
       </c>
       <c r="I27" s="48" t="n">
-        <v>57283.77044000001</v>
+        <v>57283.77044</v>
       </c>
       <c r="J27" s="48" t="n">
         <v>44325.17836</v>
@@ -1840,11 +1856,16 @@
       <c r="M27" s="48" t="n">
         <v>13828.96309</v>
       </c>
-    </row>
-    <row r="28" spans="1:13">
+      <c r="N27" s="48" t="n">
+        <v>60063.555</v>
+      </c>
+    </row>
+    <row r="28">
       <c r="A28" s="9" t="n"/>
-      <c r="B28" s="41" t="s">
-        <v>25</v>
+      <c r="B28" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Interest Income</t>
+        </is>
       </c>
       <c r="C28" s="48" t="n">
         <v>25560.44227</v>
@@ -1856,34 +1877,39 @@
         <v>21860.23607</v>
       </c>
       <c r="F28" s="48" t="n">
-        <v>33029.18909000001</v>
+        <v>33029.18909</v>
       </c>
       <c r="G28" s="48" t="n">
-        <v>39535.81696</v>
+        <v>39591.73159</v>
       </c>
       <c r="H28" s="48" t="n">
-        <v>57718.33302</v>
+        <v>57802.64736</v>
       </c>
       <c r="I28" s="48" t="n">
-        <v>85608.47033</v>
+        <v>90399.37734000001</v>
       </c>
       <c r="J28" s="48" t="n">
-        <v>86141.54062999999</v>
+        <v>86971.80715000001</v>
       </c>
       <c r="K28" s="48" t="n">
         <v>138612.48366</v>
       </c>
       <c r="L28" s="48" t="n">
-        <v>175999.06634</v>
+        <v>176075.94028</v>
       </c>
       <c r="M28" s="48" t="n">
-        <v>219104.00386</v>
-      </c>
-    </row>
-    <row r="29" spans="1:13">
+        <v>220118.14554</v>
+      </c>
+      <c r="N28" s="48" t="n">
+        <v>185189.987</v>
+      </c>
+    </row>
+    <row r="29">
       <c r="A29" s="9" t="n"/>
-      <c r="B29" s="41" t="s">
-        <v>26</v>
+      <c r="B29" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Commissions</t>
+        </is>
       </c>
       <c r="C29" s="48" t="n">
         <v>1488.79671</v>
@@ -1904,25 +1930,30 @@
         <v>4378.6403</v>
       </c>
       <c r="I29" s="48" t="n">
-        <v>3729.22733</v>
+        <v>3801.98521</v>
       </c>
       <c r="J29" s="48" t="n">
-        <v>5237.20009</v>
+        <v>5237.200089999999</v>
       </c>
       <c r="K29" s="48" t="n">
         <v>5301.77833</v>
       </c>
       <c r="L29" s="48" t="n">
-        <v>8259.690269999999</v>
+        <v>8259.690270000001</v>
       </c>
       <c r="M29" s="48" t="n">
-        <v>7352.102359999999</v>
-      </c>
-    </row>
-    <row r="30" spans="1:13">
+        <v>7413.799</v>
+      </c>
+      <c r="N29" s="48" t="n">
+        <v>6254.334</v>
+      </c>
+    </row>
+    <row r="30">
       <c r="A30" s="9" t="n"/>
-      <c r="B30" s="41" t="s">
-        <v>27</v>
+      <c r="B30" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    5-Provisions that are Cancelled</t>
+        </is>
       </c>
       <c r="C30" s="48" t="n">
         <v>872.6577900000001</v>
@@ -1943,25 +1974,30 @@
         <v>1097.82534</v>
       </c>
       <c r="I30" s="48" t="n">
-        <v>1179.76623</v>
+        <v>1188.69988</v>
       </c>
       <c r="J30" s="48" t="n">
-        <v>3541.73582</v>
+        <v>3551.05543</v>
       </c>
       <c r="K30" s="48" t="n">
         <v>11323.58943</v>
       </c>
       <c r="L30" s="48" t="n">
-        <v>6138.68903</v>
+        <v>6138.98603</v>
       </c>
       <c r="M30" s="48" t="n">
-        <v>13676.00238</v>
-      </c>
-    </row>
-    <row r="31" spans="1:13">
+        <v>13743.55504</v>
+      </c>
+      <c r="N30" s="48" t="n">
+        <v>9560.965</v>
+      </c>
+    </row>
+    <row r="31">
       <c r="A31" s="9" t="n"/>
-      <c r="B31" s="41" t="s">
-        <v>28</v>
+      <c r="B31" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    6-Income from Sale of Securities</t>
+        </is>
       </c>
       <c r="C31" s="48" t="n">
         <v>711.5077199999999</v>
@@ -1976,31 +2012,36 @@
         <v>2320.594</v>
       </c>
       <c r="G31" s="48" t="n">
-        <v>1921.78275</v>
+        <v>1928.50842</v>
       </c>
       <c r="H31" s="48" t="n">
-        <v>1282.78602</v>
+        <v>1292.61175</v>
       </c>
       <c r="I31" s="48" t="n">
-        <v>59691.89032999999</v>
+        <v>59710.34243</v>
       </c>
       <c r="J31" s="48" t="n">
-        <v>13937.21111</v>
+        <v>13937.21202</v>
       </c>
       <c r="K31" s="48" t="n">
-        <v>9256.194190000002</v>
+        <v>9256.19419</v>
       </c>
       <c r="L31" s="48" t="n">
         <v>10654.46744</v>
       </c>
       <c r="M31" s="48" t="n">
-        <v>7469.597700000001</v>
-      </c>
-    </row>
-    <row r="32" spans="1:13">
+        <v>7469.6066</v>
+      </c>
+      <c r="N31" s="48" t="n">
+        <v>15637.932</v>
+      </c>
+    </row>
+    <row r="32">
       <c r="A32" s="9" t="n"/>
-      <c r="B32" s="41" t="s">
-        <v>29</v>
+      <c r="B32" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    7-Exchange Profits</t>
+        </is>
       </c>
       <c r="C32" s="48" t="n">
         <v>43589.39029</v>
@@ -2015,31 +2056,36 @@
         <v>44178.07197</v>
       </c>
       <c r="G32" s="48" t="n">
-        <v>142352.31555</v>
+        <v>142352.46453</v>
       </c>
       <c r="H32" s="48" t="n">
-        <v>325752.93739</v>
+        <v>325789.18725</v>
       </c>
       <c r="I32" s="48" t="n">
-        <v>309987.6351700001</v>
+        <v>433715.94183</v>
       </c>
       <c r="J32" s="48" t="n">
-        <v>626094.1064599999</v>
+        <v>634130.83834</v>
       </c>
       <c r="K32" s="48" t="n">
         <v>925326.61628</v>
       </c>
       <c r="L32" s="48" t="n">
-        <v>889785.69343</v>
+        <v>889849.8358999999</v>
       </c>
       <c r="M32" s="48" t="n">
-        <v>349991.65694</v>
-      </c>
-    </row>
-    <row r="33" spans="1:13">
+        <v>351463.80249</v>
+      </c>
+      <c r="N32" s="48" t="n">
+        <v>669184.897</v>
+      </c>
+    </row>
+    <row r="33">
       <c r="A33" s="9" t="n"/>
-      <c r="B33" s="41" t="s">
-        <v>30</v>
+      <c r="B33" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    8-Discount Income</t>
+        </is>
       </c>
       <c r="C33" s="48" t="n">
         <v>178.60099</v>
@@ -2060,7 +2106,7 @@
         <v>479.91761</v>
       </c>
       <c r="I33" s="48" t="n">
-        <v>347.46597</v>
+        <v>379.63811</v>
       </c>
       <c r="J33" s="48" t="n">
         <v>211.25334</v>
@@ -2074,11 +2120,16 @@
       <c r="M33" s="48" t="n">
         <v>1001.97116</v>
       </c>
-    </row>
-    <row r="34" spans="1:13">
+      <c r="N33" s="48" t="n">
+        <v>962.524</v>
+      </c>
+    </row>
+    <row r="34">
       <c r="A34" s="9" t="n"/>
-      <c r="B34" s="41" t="s">
-        <v>31</v>
+      <c r="B34" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    9-Inflation Adjustment Profits</t>
+        </is>
       </c>
       <c r="C34" s="48" t="n">
         <v>59.67869</v>
@@ -2093,13 +2144,13 @@
         <v>181.67515</v>
       </c>
       <c r="G34" s="48" t="n">
-        <v>641.3129200000001</v>
+        <v>641.31292</v>
       </c>
       <c r="H34" s="48" t="n">
-        <v>953.8274099999999</v>
+        <v>953.82741</v>
       </c>
       <c r="I34" s="48" t="n">
-        <v>395.5643</v>
+        <v>395.5643000000001</v>
       </c>
       <c r="J34" s="48" t="n">
         <v>520.5489700000001</v>
@@ -2113,11 +2164,16 @@
       <c r="M34" s="48" t="n">
         <v>17.32226</v>
       </c>
-    </row>
-    <row r="35" spans="1:13">
+      <c r="N34" s="48" t="n">
+        <v>130.747</v>
+      </c>
+    </row>
+    <row r="35">
       <c r="A35" s="9" t="n"/>
-      <c r="B35" s="41" t="s">
-        <v>32</v>
+      <c r="B35" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   10-Other Income</t>
+        </is>
       </c>
       <c r="C35" s="48" t="n">
         <v>42983.11382999999</v>
@@ -2129,37 +2185,42 @@
         <v>67840.43068999999</v>
       </c>
       <c r="F35" s="48" t="n">
-        <v>88437.03091</v>
+        <v>88437.04689</v>
       </c>
       <c r="G35" s="48" t="n">
-        <v>112072.05927</v>
+        <v>112314.8043</v>
       </c>
       <c r="H35" s="48" t="n">
-        <v>147918.45642</v>
+        <v>148271.52097</v>
       </c>
       <c r="I35" s="48" t="n">
-        <v>177555.73725</v>
+        <v>183955.55546</v>
       </c>
       <c r="J35" s="48" t="n">
-        <v>223529.45333</v>
+        <v>225237.7604</v>
       </c>
       <c r="K35" s="48" t="n">
         <v>239067.0933</v>
       </c>
       <c r="L35" s="48" t="n">
-        <v>313055.20034</v>
+        <v>313794.99752</v>
       </c>
       <c r="M35" s="48" t="n">
-        <v>476385.66875</v>
-      </c>
-    </row>
-    <row r="36" spans="1:13">
+        <v>481443.06508</v>
+      </c>
+      <c r="N35" s="48" t="n">
+        <v>422125.208</v>
+      </c>
+    </row>
+    <row r="36">
       <c r="A36" s="14" t="n"/>
-      <c r="B36" s="38" t="s">
-        <v>33</v>
+      <c r="B36" s="38" t="inlineStr">
+        <is>
+          <t>G-EXPENSES FROM OTHER OPERATIONS (-)</t>
+        </is>
       </c>
       <c r="C36" s="46" t="n">
-        <v>90801.48275999998</v>
+        <v>90801.48276</v>
       </c>
       <c r="D36" s="47" t="n">
         <v>134963.16556</v>
@@ -2168,34 +2229,39 @@
         <v>171563.31818</v>
       </c>
       <c r="F36" s="47" t="n">
-        <v>146975.82971</v>
+        <v>146975.8458</v>
       </c>
       <c r="G36" s="47" t="n">
-        <v>404231.06189</v>
+        <v>404483.90049</v>
       </c>
       <c r="H36" s="47" t="n">
-        <v>573723.21366</v>
+        <v>573950.82146</v>
       </c>
       <c r="I36" s="47" t="n">
-        <v>797678.02818</v>
+        <v>939820.01422</v>
       </c>
       <c r="J36" s="47" t="n">
-        <v>1043198.70601</v>
+        <v>1054384.30236</v>
       </c>
       <c r="K36" s="47" t="n">
         <v>1425081.53436</v>
       </c>
       <c r="L36" s="47" t="n">
-        <v>1233215.12473</v>
+        <v>1233457.94327</v>
       </c>
       <c r="M36" s="47" t="n">
-        <v>845511.1623599998</v>
-      </c>
-    </row>
-    <row r="37" spans="1:13">
+        <v>852088.0358299999</v>
+      </c>
+      <c r="N36" s="47" t="n">
+        <v>1047242.832</v>
+      </c>
+    </row>
+    <row r="37">
       <c r="A37" s="9" t="n"/>
-      <c r="B37" s="3" t="s">
-        <v>34</v>
+      <c r="B37" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Commissions (-)</t>
+        </is>
       </c>
       <c r="C37" s="48" t="n">
         <v>21232.59065</v>
@@ -2210,34 +2276,39 @@
         <v>71350.92075</v>
       </c>
       <c r="G37" s="48" t="n">
-        <v>76014.22572</v>
+        <v>76266.15704999999</v>
       </c>
       <c r="H37" s="48" t="n">
-        <v>91876.63148000003</v>
+        <v>91982.18810999999</v>
       </c>
       <c r="I37" s="48" t="n">
-        <v>100537.61089</v>
+        <v>113412.07398</v>
       </c>
       <c r="J37" s="48" t="n">
-        <v>123587.24897</v>
+        <v>123713.22885</v>
       </c>
       <c r="K37" s="48" t="n">
         <v>153282.99373</v>
       </c>
       <c r="L37" s="48" t="n">
-        <v>198535.21533</v>
+        <v>198632.99809</v>
       </c>
       <c r="M37" s="48" t="n">
-        <v>250160.79546</v>
-      </c>
-    </row>
-    <row r="38" spans="1:13">
+        <v>251203.45498</v>
+      </c>
+      <c r="N37" s="48" t="n">
+        <v>196908.799</v>
+      </c>
+    </row>
+    <row r="38">
       <c r="A38" s="9" t="n"/>
-      <c r="B38" s="3" t="s">
-        <v>35</v>
+      <c r="B38" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Provision Expenses (-)</t>
+        </is>
       </c>
       <c r="C38" s="48" t="n">
-        <v>6581.11852</v>
+        <v>6581.118520000001</v>
       </c>
       <c r="D38" s="48" t="n">
         <v>8314.538140000001</v>
@@ -2246,19 +2317,19 @@
         <v>7590.21459</v>
       </c>
       <c r="F38" s="48" t="n">
-        <v>8145.31238</v>
+        <v>8145.312379999999</v>
       </c>
       <c r="G38" s="48" t="n">
-        <v>7339.749559999998</v>
+        <v>7339.74956</v>
       </c>
       <c r="H38" s="48" t="n">
-        <v>7852.08655</v>
+        <v>7852.086550000001</v>
       </c>
       <c r="I38" s="48" t="n">
-        <v>7215.409289999999</v>
+        <v>10806.0959</v>
       </c>
       <c r="J38" s="48" t="n">
-        <v>15197.15887</v>
+        <v>15197.15893</v>
       </c>
       <c r="K38" s="48" t="n">
         <v>12116.93546</v>
@@ -2267,34 +2338,39 @@
         <v>14788.54224</v>
       </c>
       <c r="M38" s="48" t="n">
-        <v>23543.9719</v>
-      </c>
-    </row>
-    <row r="39" spans="1:13">
+        <v>23543.40034</v>
+      </c>
+      <c r="N38" s="48" t="n">
+        <v>24059.452</v>
+      </c>
+    </row>
+    <row r="39">
       <c r="A39" s="9" t="n"/>
-      <c r="B39" s="3" t="s">
-        <v>36</v>
+      <c r="B39" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Loss from Sale of Securities (-)</t>
+        </is>
       </c>
       <c r="C39" s="48" t="n">
         <v>1450.17441</v>
       </c>
       <c r="D39" s="48" t="n">
-        <v>310.62057</v>
+        <v>310.6205699999999</v>
       </c>
       <c r="E39" s="48" t="n">
         <v>20114.04921</v>
       </c>
       <c r="F39" s="48" t="n">
-        <v>5856.488989999999</v>
+        <v>5856.48899</v>
       </c>
       <c r="G39" s="48" t="n">
         <v>3996.91896</v>
       </c>
       <c r="H39" s="48" t="n">
-        <v>3274.91422</v>
+        <v>3275.05773</v>
       </c>
       <c r="I39" s="48" t="n">
-        <v>13675.6538</v>
+        <v>13696.00745</v>
       </c>
       <c r="J39" s="48" t="n">
         <v>1507.31512</v>
@@ -2308,50 +2384,60 @@
       <c r="M39" s="48" t="n">
         <v>197.68594</v>
       </c>
-    </row>
-    <row r="40" spans="1:13">
+      <c r="N39" s="48" t="n">
+        <v>4585.27</v>
+      </c>
+    </row>
+    <row r="40">
       <c r="A40" s="9" t="n"/>
-      <c r="B40" s="3" t="s">
-        <v>37</v>
+      <c r="B40" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Exchange Losses (-)</t>
+        </is>
       </c>
       <c r="C40" s="48" t="n">
         <v>40643.89632</v>
       </c>
       <c r="D40" s="48" t="n">
-        <v>45719.52815000001</v>
+        <v>45719.52815</v>
       </c>
       <c r="E40" s="48" t="n">
-        <v>63297.01578</v>
+        <v>63297.01578000001</v>
       </c>
       <c r="F40" s="48" t="n">
         <v>32537.70192</v>
       </c>
       <c r="G40" s="48" t="n">
-        <v>279290.74172</v>
+        <v>279292.43817</v>
       </c>
       <c r="H40" s="48" t="n">
-        <v>415807.73998</v>
+        <v>415809.8097500001</v>
       </c>
       <c r="I40" s="48" t="n">
-        <v>616389.2624499999</v>
+        <v>735150.21209</v>
       </c>
       <c r="J40" s="48" t="n">
-        <v>826345.08562</v>
+        <v>837347.6692100001</v>
       </c>
       <c r="K40" s="48" t="n">
         <v>1185176.62649</v>
       </c>
       <c r="L40" s="48" t="n">
-        <v>870370.99411</v>
+        <v>870382.39067</v>
       </c>
       <c r="M40" s="48" t="n">
-        <v>389805.14029</v>
-      </c>
-    </row>
-    <row r="41" spans="1:13">
+        <v>391986.6631899999</v>
+      </c>
+      <c r="N40" s="48" t="n">
+        <v>649901.154</v>
+      </c>
+    </row>
+    <row r="41">
       <c r="A41" s="9" t="n"/>
-      <c r="B41" s="3" t="s">
-        <v>38</v>
+      <c r="B41" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    5-Discount Costs (-)</t>
+        </is>
       </c>
       <c r="C41" s="48" t="n">
         <v>291.58009</v>
@@ -2369,10 +2455,10 @@
         <v>160.85402</v>
       </c>
       <c r="H41" s="48" t="n">
-        <v>366.5686900000001</v>
+        <v>366.5686899999999</v>
       </c>
       <c r="I41" s="48" t="n">
-        <v>562.5999099999999</v>
+        <v>608.0735100000001</v>
       </c>
       <c r="J41" s="48" t="n">
         <v>1966.9812</v>
@@ -2386,11 +2472,16 @@
       <c r="M41" s="48" t="n">
         <v>164.40342</v>
       </c>
-    </row>
-    <row r="42" spans="1:13">
+      <c r="N41" s="48" t="n">
+        <v>570.047</v>
+      </c>
+    </row>
+    <row r="42">
       <c r="A42" s="9" t="n"/>
-      <c r="B42" s="3" t="s">
-        <v>39</v>
+      <c r="B42" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    6-Inflation Adjustment Losses (-)</t>
+        </is>
       </c>
       <c r="C42" s="48" t="n">
         <v>1526.46711</v>
@@ -2425,11 +2516,16 @@
       <c r="M42" s="48" t="n">
         <v>4487.92426</v>
       </c>
-    </row>
-    <row r="43" spans="1:13">
+      <c r="N42" s="48" t="n">
+        <v>410.75</v>
+      </c>
+    </row>
+    <row r="43">
       <c r="A43" s="9" t="n"/>
-      <c r="B43" s="3" t="s">
-        <v>40</v>
+      <c r="B43" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    7-Other Expenditures (-)</t>
+        </is>
       </c>
       <c r="C43" s="48" t="n">
         <v>19075.65566</v>
@@ -2441,37 +2537,42 @@
         <v>17928.92199</v>
       </c>
       <c r="F43" s="48" t="n">
-        <v>28539.66041</v>
+        <v>28539.6765</v>
       </c>
       <c r="G43" s="48" t="n">
-        <v>37135.32019</v>
+        <v>37134.53101</v>
       </c>
       <c r="H43" s="48" t="n">
-        <v>54329.87744</v>
+        <v>54449.71533</v>
       </c>
       <c r="I43" s="48" t="n">
-        <v>59068.11977</v>
+        <v>65918.17922000001</v>
       </c>
       <c r="J43" s="48" t="n">
-        <v>74414.68654</v>
+        <v>74471.71936</v>
       </c>
       <c r="K43" s="48" t="n">
-        <v>73953.30598</v>
+        <v>73953.30597999999</v>
       </c>
       <c r="L43" s="48" t="n">
-        <v>128210.81467</v>
+        <v>128344.45389</v>
       </c>
       <c r="M43" s="48" t="n">
-        <v>177151.24109</v>
-      </c>
-    </row>
-    <row r="44" spans="1:13">
+        <v>180504.5037</v>
+      </c>
+      <c r="N43" s="48" t="n">
+        <v>170807.36</v>
+      </c>
+    </row>
+    <row r="44">
       <c r="A44" s="14" t="n"/>
-      <c r="B44" s="38" t="s">
-        <v>41</v>
+      <c r="B44" s="38" t="inlineStr">
+        <is>
+          <t>H-FINANCING EXPENSES  (-)</t>
+        </is>
       </c>
       <c r="C44" s="46" t="n">
-        <v>84653.51584000001</v>
+        <v>84654.78012000001</v>
       </c>
       <c r="D44" s="47" t="n">
         <v>86168.26224</v>
@@ -2480,37 +2581,42 @@
         <v>126074.31554</v>
       </c>
       <c r="F44" s="47" t="n">
-        <v>153647.99151</v>
+        <v>153677.34965</v>
       </c>
       <c r="G44" s="47" t="n">
-        <v>235070.08308</v>
+        <v>235477.5894</v>
       </c>
       <c r="H44" s="47" t="n">
-        <v>317870.55792</v>
+        <v>318423.07316</v>
       </c>
       <c r="I44" s="47" t="n">
-        <v>378433.27141</v>
+        <v>405680.6437000001</v>
       </c>
       <c r="J44" s="47" t="n">
-        <v>471283.76091</v>
+        <v>473276.21522</v>
       </c>
       <c r="K44" s="47" t="n">
         <v>647567.18752</v>
       </c>
       <c r="L44" s="47" t="n">
-        <v>731985.66203</v>
+        <v>732628.83024</v>
       </c>
       <c r="M44" s="47" t="n">
-        <v>879033.4768899999</v>
-      </c>
-    </row>
-    <row r="45" spans="1:13">
+        <v>888768.5559200001</v>
+      </c>
+      <c r="N44" s="47" t="n">
+        <v>954570.258</v>
+      </c>
+    </row>
+    <row r="45">
       <c r="A45" s="9" t="n"/>
-      <c r="B45" s="41" t="s">
-        <v>42</v>
+      <c r="B45" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Short-term Financing Expenses (-)</t>
+        </is>
       </c>
       <c r="C45" s="48" t="n">
-        <v>76017.20653</v>
+        <v>76018.47081</v>
       </c>
       <c r="D45" s="48" t="n">
         <v>77674.64455</v>
@@ -2519,34 +2625,39 @@
         <v>104692.94876</v>
       </c>
       <c r="F45" s="48" t="n">
-        <v>127872.40679</v>
+        <v>127901.76493</v>
       </c>
       <c r="G45" s="48" t="n">
-        <v>154359.37892</v>
+        <v>154759.64235</v>
       </c>
       <c r="H45" s="48" t="n">
-        <v>285891.91642</v>
+        <v>286444.43166</v>
       </c>
       <c r="I45" s="48" t="n">
-        <v>353075.94919</v>
+        <v>369549.07655</v>
       </c>
       <c r="J45" s="48" t="n">
-        <v>423002.17982</v>
+        <v>424811.2102199999</v>
       </c>
       <c r="K45" s="48" t="n">
         <v>584163.53892</v>
       </c>
       <c r="L45" s="48" t="n">
-        <v>678968.1619300001</v>
+        <v>679611.33014</v>
       </c>
       <c r="M45" s="48" t="n">
-        <v>771416.40644</v>
-      </c>
-    </row>
-    <row r="46" spans="1:13">
+        <v>780294.6315899999</v>
+      </c>
+      <c r="N45" s="48" t="n">
+        <v>733692.504</v>
+      </c>
+    </row>
+    <row r="46">
       <c r="A46" s="9" t="n"/>
-      <c r="B46" s="41" t="s">
-        <v>43</v>
+      <c r="B46" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Long-term Financing Expenses (-)</t>
+        </is>
       </c>
       <c r="C46" s="48" t="n">
         <v>8636.309310000001</v>
@@ -2561,235 +2672,265 @@
         <v>25775.58472</v>
       </c>
       <c r="G46" s="48" t="n">
-        <v>80710.70415999999</v>
+        <v>80717.94705</v>
       </c>
       <c r="H46" s="48" t="n">
-        <v>31978.64150000001</v>
+        <v>31978.6415</v>
       </c>
       <c r="I46" s="48" t="n">
-        <v>25357.32222</v>
+        <v>36131.56715</v>
       </c>
       <c r="J46" s="48" t="n">
-        <v>48281.58109000001</v>
+        <v>48465.005</v>
       </c>
       <c r="K46" s="48" t="n">
-        <v>63403.64859999999</v>
+        <v>63403.64860000001</v>
       </c>
       <c r="L46" s="48" t="n">
         <v>53017.5001</v>
       </c>
       <c r="M46" s="48" t="n">
-        <v>107617.07045</v>
-      </c>
-    </row>
-    <row r="47" spans="1:13">
+        <v>108473.92433</v>
+      </c>
+      <c r="N46" s="48" t="n">
+        <v>220877.754</v>
+      </c>
+    </row>
+    <row r="47">
       <c r="A47" s="14" t="n"/>
-      <c r="B47" s="42" t="s">
-        <v>44</v>
+      <c r="B47" s="42" t="inlineStr">
+        <is>
+          <t>PROFIT BEFORE EXTRAORDINARY ITEMS</t>
+        </is>
       </c>
       <c r="C47" s="46" t="n">
-        <v>-21843.41131</v>
+        <v>-21918.27641</v>
       </c>
       <c r="D47" s="47" t="n">
-        <v>18791.09761</v>
+        <v>18782.01254</v>
       </c>
       <c r="E47" s="47" t="n">
-        <v>11321.09673000001</v>
+        <v>11343.35969</v>
       </c>
       <c r="F47" s="47" t="n">
-        <v>-47875.33335000001</v>
+        <v>-47682.45657999998</v>
       </c>
       <c r="G47" s="47" t="n">
-        <v>-330753.25436</v>
+        <v>-333063.36003</v>
       </c>
       <c r="H47" s="47" t="n">
-        <v>-462134.83593</v>
+        <v>-463058.40801</v>
       </c>
       <c r="I47" s="47" t="n">
-        <v>-718625.9140499999</v>
+        <v>-757878.9614400001</v>
       </c>
       <c r="J47" s="47" t="n">
-        <v>-1034208.99975</v>
+        <v>-1047440.13653</v>
       </c>
       <c r="K47" s="47" t="n">
-        <v>-659445.14929</v>
+        <v>-659445.1492900001</v>
       </c>
       <c r="L47" s="47" t="n">
-        <v>-500414.32286</v>
+        <v>-523925.65411</v>
       </c>
       <c r="M47" s="47" t="n">
-        <v>-81512.28400999999</v>
-      </c>
-    </row>
-    <row r="48" spans="1:13">
+        <v>-137416.31979</v>
+      </c>
+      <c r="N47" s="47" t="n">
+        <v>-1653337.254</v>
+      </c>
+    </row>
+    <row r="48">
       <c r="A48" s="14" t="n"/>
-      <c r="B48" s="42" t="s">
-        <v>45</v>
+      <c r="B48" s="42" t="inlineStr">
+        <is>
+          <t>I-EXTRAORDINARY INCOME AND PROFITS</t>
+        </is>
       </c>
       <c r="C48" s="46" t="n">
         <v>39354.56038</v>
       </c>
       <c r="D48" s="47" t="n">
-        <v>63673.20989</v>
+        <v>63732.83132</v>
       </c>
       <c r="E48" s="47" t="n">
-        <v>81310.33464</v>
+        <v>81312.48856999999</v>
       </c>
       <c r="F48" s="47" t="n">
-        <v>88447.85132</v>
+        <v>88470.80452999999</v>
       </c>
       <c r="G48" s="47" t="n">
-        <v>127627.08226</v>
+        <v>127912.96207</v>
       </c>
       <c r="H48" s="47" t="n">
-        <v>193214.16873</v>
+        <v>193643.38675</v>
       </c>
       <c r="I48" s="47" t="n">
-        <v>177612.84218</v>
+        <v>196725.07507</v>
       </c>
       <c r="J48" s="47" t="n">
-        <v>255754.71726</v>
+        <v>257498.71268</v>
       </c>
       <c r="K48" s="47" t="n">
         <v>284729.3277</v>
       </c>
       <c r="L48" s="47" t="n">
-        <v>379254.02041</v>
+        <v>380032.28275</v>
       </c>
       <c r="M48" s="47" t="n">
-        <v>456704.8191799999</v>
-      </c>
-    </row>
-    <row r="49" spans="1:13">
+        <v>466457.3766700001</v>
+      </c>
+      <c r="N48" s="47" t="n">
+        <v>609820.326</v>
+      </c>
+    </row>
+    <row r="49">
       <c r="A49" s="9" t="n"/>
-      <c r="B49" s="41" t="s">
-        <v>46</v>
+      <c r="B49" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Profits and Income from Previous Period</t>
+        </is>
       </c>
       <c r="C49" s="48" t="n">
         <v>936.85825</v>
       </c>
       <c r="D49" s="48" t="n">
-        <v>881.5411600000001</v>
+        <v>941.06416</v>
       </c>
       <c r="E49" s="48" t="n">
         <v>1730.5273</v>
       </c>
       <c r="F49" s="48" t="n">
-        <v>3100.81302</v>
+        <v>3105.04688</v>
       </c>
       <c r="G49" s="48" t="n">
-        <v>955.29125</v>
+        <v>955.2912499999999</v>
       </c>
       <c r="H49" s="48" t="n">
-        <v>3221.44345</v>
+        <v>3372.89739</v>
       </c>
       <c r="I49" s="48" t="n">
-        <v>2904.66617</v>
+        <v>2904.66622</v>
       </c>
       <c r="J49" s="48" t="n">
-        <v>2139.3974</v>
+        <v>2183.47492</v>
       </c>
       <c r="K49" s="48" t="n">
-        <v>8535.29146</v>
+        <v>8535.291459999999</v>
       </c>
       <c r="L49" s="48" t="n">
-        <v>4219.37775</v>
+        <v>4235.51592</v>
       </c>
       <c r="M49" s="48" t="n">
-        <v>6465.43937</v>
-      </c>
-    </row>
-    <row r="50" spans="1:13">
+        <v>6768.11614</v>
+      </c>
+      <c r="N49" s="48" t="n">
+        <v>26174.549</v>
+      </c>
+    </row>
+    <row r="50">
       <c r="A50" s="9" t="n"/>
-      <c r="B50" s="41" t="s">
-        <v>47</v>
+      <c r="B50" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Other Extraordinary Profits and Income</t>
+        </is>
       </c>
       <c r="C50" s="48" t="n">
         <v>38417.70213000001</v>
       </c>
       <c r="D50" s="48" t="n">
-        <v>62791.66873</v>
+        <v>62791.76716</v>
       </c>
       <c r="E50" s="48" t="n">
-        <v>79579.80734</v>
+        <v>79581.96127</v>
       </c>
       <c r="F50" s="48" t="n">
-        <v>85347.03830000001</v>
+        <v>85365.75765</v>
       </c>
       <c r="G50" s="48" t="n">
-        <v>126671.79101</v>
+        <v>126957.67082</v>
       </c>
       <c r="H50" s="48" t="n">
-        <v>189992.72528</v>
+        <v>190270.48936</v>
       </c>
       <c r="I50" s="48" t="n">
-        <v>174708.17601</v>
+        <v>193820.40885</v>
       </c>
       <c r="J50" s="48" t="n">
-        <v>253615.31986</v>
+        <v>255315.23776</v>
       </c>
       <c r="K50" s="48" t="n">
         <v>276194.03624</v>
       </c>
       <c r="L50" s="48" t="n">
-        <v>375034.64266</v>
+        <v>375796.76683</v>
       </c>
       <c r="M50" s="48" t="n">
-        <v>450239.37981</v>
-      </c>
-    </row>
-    <row r="51" spans="1:13">
+        <v>459689.26053</v>
+      </c>
+      <c r="N50" s="48" t="n">
+        <v>583645.777</v>
+      </c>
+    </row>
+    <row r="51">
       <c r="A51" s="14" t="n"/>
-      <c r="B51" s="38" t="s">
-        <v>48</v>
+      <c r="B51" s="38" t="inlineStr">
+        <is>
+          <t>J-EXTRA ORDINARY EXPENSES AND LOSSES (-)</t>
+        </is>
       </c>
       <c r="C51" s="46" t="n">
-        <v>61138.12656</v>
+        <v>61139.49525</v>
       </c>
       <c r="D51" s="47" t="n">
-        <v>70910.21017999999</v>
+        <v>71024.39425</v>
       </c>
       <c r="E51" s="47" t="n">
-        <v>424986.9862399999</v>
+        <v>424986.98624</v>
       </c>
       <c r="F51" s="47" t="n">
-        <v>114114.11929</v>
+        <v>114168.11757</v>
       </c>
       <c r="G51" s="47" t="n">
-        <v>142687.83945</v>
+        <v>142811.12035</v>
       </c>
       <c r="H51" s="47" t="n">
-        <v>320947.89993</v>
+        <v>321164.70035</v>
       </c>
       <c r="I51" s="47" t="n">
-        <v>245786.50075</v>
+        <v>258544.99498</v>
       </c>
       <c r="J51" s="47" t="n">
-        <v>500203.16585</v>
+        <v>505197.7736</v>
       </c>
       <c r="K51" s="47" t="n">
-        <v>322098.94593</v>
+        <v>322098.9459299999</v>
       </c>
       <c r="L51" s="47" t="n">
-        <v>603798.18328</v>
+        <v>604895.3841200001</v>
       </c>
       <c r="M51" s="47" t="n">
-        <v>413998.99221</v>
-      </c>
-    </row>
-    <row r="52" spans="1:13">
+        <v>417972.79426</v>
+      </c>
+      <c r="N51" s="47" t="n">
+        <v>462462.896</v>
+      </c>
+    </row>
+    <row r="52">
       <c r="A52" s="9" t="n"/>
-      <c r="B52" s="41" t="s">
-        <v>49</v>
+      <c r="B52" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Losses from non-Operating Parts (-)</t>
+        </is>
       </c>
       <c r="C52" s="48" t="n">
         <v>2210.71108</v>
       </c>
       <c r="D52" s="48" t="n">
-        <v>8834.488389999999</v>
+        <v>8834.48839</v>
       </c>
       <c r="E52" s="48" t="n">
-        <v>20018.76591000001</v>
+        <v>20018.76591</v>
       </c>
       <c r="F52" s="48" t="n">
         <v>15718.39627</v>
@@ -2801,10 +2942,10 @@
         <v>30704.34262</v>
       </c>
       <c r="I52" s="48" t="n">
-        <v>35469.69084999999</v>
+        <v>36615.22703</v>
       </c>
       <c r="J52" s="48" t="n">
-        <v>41416.90359</v>
+        <v>41416.90358999999</v>
       </c>
       <c r="K52" s="48" t="n">
         <v>50771.96459</v>
@@ -2813,205 +2954,233 @@
         <v>50764.86919</v>
       </c>
       <c r="M52" s="48" t="n">
-        <v>34100.73808</v>
-      </c>
-    </row>
-    <row r="53" spans="1:13">
+        <v>34132.55246</v>
+      </c>
+      <c r="N52" s="48" t="n">
+        <v>50219.471</v>
+      </c>
+    </row>
+    <row r="53">
       <c r="A53" s="9" t="n"/>
-      <c r="B53" s="41" t="s">
-        <v>50</v>
+      <c r="B53" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Losses from Previous Periods (-)</t>
+        </is>
       </c>
       <c r="C53" s="48" t="n">
-        <v>4260.76121</v>
+        <v>4262.129900000001</v>
       </c>
       <c r="D53" s="48" t="n">
-        <v>6080.19843</v>
+        <v>6154.868060000001</v>
       </c>
       <c r="E53" s="48" t="n">
-        <v>5935.87717</v>
+        <v>5935.877169999999</v>
       </c>
       <c r="F53" s="48" t="n">
         <v>10337.44748</v>
       </c>
       <c r="G53" s="48" t="n">
-        <v>8358.5275</v>
+        <v>8354.26413</v>
       </c>
       <c r="H53" s="48" t="n">
-        <v>8878.144769999999</v>
+        <v>8894.138789999999</v>
       </c>
       <c r="I53" s="48" t="n">
-        <v>18479.81461</v>
+        <v>18700.31976</v>
       </c>
       <c r="J53" s="48" t="n">
-        <v>17989.46739</v>
+        <v>19603.12703</v>
       </c>
       <c r="K53" s="48" t="n">
         <v>14375.27225</v>
       </c>
       <c r="L53" s="48" t="n">
-        <v>16106.66294</v>
+        <v>16106.70174</v>
       </c>
       <c r="M53" s="48" t="n">
-        <v>21673.33591</v>
-      </c>
-    </row>
-    <row r="54" spans="1:13">
+        <v>21713.23281</v>
+      </c>
+      <c r="N53" s="48" t="n">
+        <v>11311.402</v>
+      </c>
+    </row>
+    <row r="54">
       <c r="A54" s="9" t="n"/>
-      <c r="B54" s="41" t="s">
-        <v>51</v>
+      <c r="B54" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other Extraordinary Expenses (-)</t>
+        </is>
       </c>
       <c r="C54" s="48" t="n">
         <v>54666.65427</v>
       </c>
       <c r="D54" s="48" t="n">
-        <v>55995.52336</v>
+        <v>56035.0378</v>
       </c>
       <c r="E54" s="48" t="n">
         <v>399032.34316</v>
       </c>
       <c r="F54" s="48" t="n">
-        <v>88058.27553999999</v>
+        <v>88112.27382</v>
       </c>
       <c r="G54" s="48" t="n">
-        <v>111456.28037</v>
+        <v>111583.82464</v>
       </c>
       <c r="H54" s="48" t="n">
-        <v>281365.41254</v>
+        <v>281566.21894</v>
       </c>
       <c r="I54" s="48" t="n">
-        <v>191836.99529</v>
+        <v>203229.44819</v>
       </c>
       <c r="J54" s="48" t="n">
-        <v>440796.79487</v>
+        <v>444177.74298</v>
       </c>
       <c r="K54" s="48" t="n">
         <v>256951.70909</v>
       </c>
       <c r="L54" s="48" t="n">
-        <v>536926.6511499999</v>
+        <v>538023.81319</v>
       </c>
       <c r="M54" s="48" t="n">
-        <v>358224.91822</v>
-      </c>
-    </row>
-    <row r="55" spans="1:13">
+        <v>362127.00899</v>
+      </c>
+      <c r="N54" s="48" t="n">
+        <v>400932.023</v>
+      </c>
+    </row>
+    <row r="55">
       <c r="A55" s="14" t="n"/>
-      <c r="B55" s="42" t="s">
-        <v>52</v>
+      <c r="B55" s="42" t="inlineStr">
+        <is>
+          <t>PROFIT OR LOSS BEFORE TAXES</t>
+        </is>
       </c>
       <c r="C55" s="46" t="n">
-        <v>-43626.97749</v>
+        <v>-43703.21128</v>
       </c>
       <c r="D55" s="47" t="n">
-        <v>11554.09732</v>
+        <v>11490.44961</v>
       </c>
       <c r="E55" s="47" t="n">
-        <v>-332355.55487</v>
+        <v>-332331.1379799999</v>
       </c>
       <c r="F55" s="47" t="n">
-        <v>-73541.60131999999</v>
+        <v>-73379.76961999999</v>
       </c>
       <c r="G55" s="47" t="n">
-        <v>-345814.01155</v>
+        <v>-347961.51831</v>
       </c>
       <c r="H55" s="47" t="n">
-        <v>-589868.56713</v>
+        <v>-590579.72161</v>
       </c>
       <c r="I55" s="47" t="n">
-        <v>-786799.5726199999</v>
+        <v>-819698.88135</v>
       </c>
       <c r="J55" s="47" t="n">
-        <v>-1278657.44834</v>
+        <v>-1295139.19745</v>
       </c>
       <c r="K55" s="47" t="n">
         <v>-696814.76752</v>
       </c>
       <c r="L55" s="47" t="n">
-        <v>-724958.4857300001</v>
+        <v>-748788.7554800001</v>
       </c>
       <c r="M55" s="47" t="n">
-        <v>-38806.45704000002</v>
-      </c>
-    </row>
-    <row r="56" spans="1:13">
+        <v>-88931.73737999999</v>
+      </c>
+      <c r="N55" s="47" t="n">
+        <v>-1505979.824</v>
+      </c>
+    </row>
+    <row r="56">
       <c r="A56" s="14" t="n"/>
-      <c r="B56" s="42" t="s">
-        <v>53</v>
+      <c r="B56" s="42" t="inlineStr">
+        <is>
+          <t>K-PROVISIONS FOR INC.TAX &amp; OTH.LIAB.TO GOV.</t>
+        </is>
       </c>
       <c r="C56" s="46" t="n">
         <v>39437.56464</v>
       </c>
       <c r="D56" s="47" t="n">
-        <v>54936.51681999999</v>
+        <v>54936.51682</v>
       </c>
       <c r="E56" s="47" t="n">
         <v>64624.34695000001</v>
       </c>
       <c r="F56" s="47" t="n">
-        <v>67304.39179000001</v>
+        <v>67373.88558</v>
       </c>
       <c r="G56" s="47" t="n">
-        <v>88755.39129</v>
+        <v>88794.79383</v>
       </c>
       <c r="H56" s="47" t="n">
-        <v>104968.07458</v>
+        <v>105207.89768</v>
       </c>
       <c r="I56" s="47" t="n">
-        <v>124724.64806</v>
+        <v>131635.24207</v>
       </c>
       <c r="J56" s="47" t="n">
-        <v>122355.8803</v>
+        <v>122448.97856</v>
       </c>
       <c r="K56" s="47" t="n">
         <v>175906.96512</v>
       </c>
       <c r="L56" s="47" t="n">
-        <v>248406.28553</v>
+        <v>249239.61749</v>
       </c>
       <c r="M56" s="47" t="n">
-        <v>302840.40454</v>
-      </c>
-    </row>
-    <row r="57" spans="1:13">
+        <v>310771.20256</v>
+      </c>
+      <c r="N56" s="47" t="n">
+        <v>200312.887</v>
+      </c>
+    </row>
+    <row r="57">
       <c r="A57" s="14" t="n"/>
-      <c r="B57" s="42" t="s">
-        <v>54</v>
+      <c r="B57" s="42" t="inlineStr">
+        <is>
+          <t>NET PROFIT OR LOSS FOR THE FINANCIAL YEAR</t>
+        </is>
       </c>
       <c r="C57" s="46" t="n">
-        <v>-83064.54213</v>
+        <v>-83140.77592</v>
       </c>
       <c r="D57" s="47" t="n">
-        <v>-43382.4195</v>
+        <v>-43446.06720999999</v>
       </c>
       <c r="E57" s="47" t="n">
-        <v>-396979.90182</v>
+        <v>-396955.4849300001</v>
       </c>
       <c r="F57" s="47" t="n">
-        <v>-140845.99311</v>
+        <v>-140753.6552</v>
       </c>
       <c r="G57" s="47" t="n">
-        <v>-434569.40284</v>
+        <v>-436756.3121400001</v>
       </c>
       <c r="H57" s="47" t="n">
-        <v>-694836.64171</v>
+        <v>-695787.6192899999</v>
       </c>
       <c r="I57" s="47" t="n">
-        <v>-911524.22068</v>
+        <v>-951334.12342</v>
       </c>
       <c r="J57" s="47" t="n">
-        <v>-1401013.32864</v>
+        <v>-1417588.17601</v>
       </c>
       <c r="K57" s="47" t="n">
         <v>-872721.7326399999</v>
       </c>
       <c r="L57" s="47" t="n">
-        <v>-973364.77126</v>
+        <v>-998028.37297</v>
       </c>
       <c r="M57" s="47" t="n">
-        <v>-341646.86158</v>
-      </c>
-    </row>
-    <row r="58" spans="1:13">
+        <v>-399702.93994</v>
+      </c>
+      <c r="N57" s="47" t="n">
+        <v>-1706292.711</v>
+      </c>
+    </row>
+    <row r="58">
       <c r="A58" s="9" t="n"/>
       <c r="B58" s="30" t="n"/>
       <c r="C58" s="27" t="n"/>
@@ -3025,47 +3194,53 @@
       <c r="K58" s="27" t="n"/>
       <c r="L58" s="27" t="n"/>
       <c r="M58" s="27" t="n"/>
-    </row>
-    <row r="59" spans="1:13">
+      <c r="N58" s="27" t="n"/>
+    </row>
+    <row r="59">
       <c r="A59" s="9" t="n"/>
-      <c r="B59" s="43" t="s">
-        <v>55</v>
+      <c r="B59" s="43" t="inlineStr">
+        <is>
+          <t>Number of Companies</t>
+        </is>
       </c>
       <c r="C59" s="35" t="n">
-        <v>9944</v>
+        <v>9945</v>
       </c>
       <c r="D59" s="35" t="n">
-        <v>10714</v>
+        <v>10715</v>
       </c>
       <c r="E59" s="35" t="n">
-        <v>11399</v>
+        <v>11403</v>
       </c>
       <c r="F59" s="35" t="n">
-        <v>12000</v>
+        <v>12014</v>
       </c>
       <c r="G59" s="35" t="n">
-        <v>13162</v>
+        <v>13187</v>
       </c>
       <c r="H59" s="35" t="n">
-        <v>14271</v>
+        <v>14331</v>
       </c>
       <c r="I59" s="35" t="n">
-        <v>15544</v>
+        <v>15692</v>
       </c>
       <c r="J59" s="35" t="n">
-        <v>17392</v>
+        <v>17489</v>
       </c>
       <c r="K59" s="35" t="n">
         <v>19491</v>
       </c>
       <c r="L59" s="35" t="n">
-        <v>20752</v>
+        <v>21876</v>
       </c>
       <c r="M59" s="35" t="n">
-        <v>22367</v>
-      </c>
-    </row>
-    <row r="60" spans="1:13">
+        <v>24633</v>
+      </c>
+      <c r="N59" s="35" t="n">
+        <v>26357</v>
+      </c>
+    </row>
+    <row r="60">
       <c r="A60" s="10" t="n"/>
       <c r="B60" s="29" t="n"/>
       <c r="C60" s="28" t="n"/>
@@ -3079,8 +3254,9 @@
       <c r="K60" s="28" t="n"/>
       <c r="L60" s="28" t="n"/>
       <c r="M60" s="28" t="n"/>
-    </row>
-    <row customHeight="1" ht="15.75" r="61" s="44" spans="1:13">
+      <c r="N60" s="28" t="n"/>
+    </row>
+    <row r="61" ht="15.75" customHeight="1" s="44">
       <c r="A61" s="5" t="n"/>
       <c r="B61" s="11" t="n"/>
       <c r="C61" s="11" t="n"/>
@@ -3094,8 +3270,9 @@
       <c r="K61" s="11" t="n"/>
       <c r="L61" s="11" t="n"/>
       <c r="M61" s="11" t="n"/>
-    </row>
-    <row customFormat="1" r="62" s="19" spans="1:13">
+      <c r="N61" s="11" t="n"/>
+    </row>
+    <row r="62" customFormat="1" s="19">
       <c r="A62" s="16" t="n"/>
       <c r="B62" s="18" t="n"/>
       <c r="C62" s="18" t="n"/>
@@ -3109,8 +3286,9 @@
       <c r="K62" s="18" t="n"/>
       <c r="L62" s="18" t="n"/>
       <c r="M62" s="18" t="n"/>
-    </row>
-    <row customFormat="1" r="63" s="23" spans="1:13">
+      <c r="N62" s="18" t="n"/>
+    </row>
+    <row r="63" customFormat="1" s="23">
       <c r="A63" s="20" t="n"/>
       <c r="B63" s="21" t="n"/>
       <c r="C63" s="22" t="n"/>
@@ -3124,8 +3302,9 @@
       <c r="K63" s="22" t="n"/>
       <c r="L63" s="22" t="n"/>
       <c r="M63" s="22" t="n"/>
-    </row>
-    <row customFormat="1" r="64" s="25" spans="1:13">
+      <c r="N63" s="22" t="n"/>
+    </row>
+    <row r="64" customFormat="1" s="25">
       <c r="C64" s="25" t="n"/>
       <c r="D64" s="25" t="n"/>
       <c r="E64" s="25" t="n"/>
@@ -3137,10 +3316,11 @@
       <c r="K64" s="25" t="n"/>
       <c r="L64" s="25" t="n"/>
       <c r="M64" s="25" t="n"/>
+      <c r="N64" s="25" t="n"/>
     </row>
   </sheetData>
   <printOptions gridLinesSet="0"/>
-  <pageMargins bottom="0.3937007874015748" footer="0.3543307086614174" header="0.3543307086614174" left="0.7480314960629921" right="0.1968503937007874" top="0.4724409448818898"/>
-  <pageSetup horizontalDpi="300" orientation="portrait" paperSize="9" scale="93" verticalDpi="300"/>
+  <pageMargins left="0.7480314960629921" right="0.1968503937007874" top="0.4724409448818898" bottom="0.3937007874015748" header="0.3543307086614174" footer="0.3543307086614174"/>
+  <pageSetup orientation="portrait" paperSize="9" scale="93" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>